--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dll1-Notch4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dll1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.13556485091955</v>
+        <v>5.190862666666667</v>
       </c>
       <c r="H2">
-        <v>2.13556485091955</v>
+        <v>15.572588</v>
       </c>
       <c r="I2">
-        <v>0.7837381362674684</v>
+        <v>0.8740249884703439</v>
       </c>
       <c r="J2">
-        <v>0.7837381362674684</v>
+        <v>0.874024988470344</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N2">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q2">
-        <v>39.36980612603785</v>
+        <v>157.5210619903267</v>
       </c>
       <c r="R2">
-        <v>39.36980612603785</v>
+        <v>1417.68955791294</v>
       </c>
       <c r="S2">
-        <v>0.6154914124302743</v>
+        <v>0.7453494960034609</v>
       </c>
       <c r="T2">
-        <v>0.6154914124302743</v>
+        <v>0.7453494960034609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.13556485091955</v>
+        <v>5.190862666666667</v>
       </c>
       <c r="H3">
-        <v>2.13556485091955</v>
+        <v>15.572588</v>
       </c>
       <c r="I3">
-        <v>0.7837381362674684</v>
+        <v>0.8740249884703439</v>
       </c>
       <c r="J3">
-        <v>0.7837381362674684</v>
+        <v>0.874024988470344</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N3">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q3">
-        <v>6.679824644506005</v>
+        <v>16.73590012021378</v>
       </c>
       <c r="R3">
-        <v>6.679824644506005</v>
+        <v>150.623101081924</v>
       </c>
       <c r="S3">
-        <v>0.1044296406253937</v>
+        <v>0.07919001155878207</v>
       </c>
       <c r="T3">
-        <v>0.1044296406253937</v>
+        <v>0.07919001155878207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.13556485091955</v>
+        <v>5.190862666666667</v>
       </c>
       <c r="H4">
-        <v>2.13556485091955</v>
+        <v>15.572588</v>
       </c>
       <c r="I4">
-        <v>0.7837381362674684</v>
+        <v>0.8740249884703439</v>
       </c>
       <c r="J4">
-        <v>0.7837381362674684</v>
+        <v>0.874024988470344</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N4">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q4">
-        <v>4.08204914453202</v>
+        <v>10.45818847070089</v>
       </c>
       <c r="R4">
-        <v>4.08204914453202</v>
+        <v>94.12369623630801</v>
       </c>
       <c r="S4">
-        <v>0.06381708321180038</v>
+        <v>0.04948548090810104</v>
       </c>
       <c r="T4">
-        <v>0.06381708321180038</v>
+        <v>0.04948548090810105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.589280032972562</v>
+        <v>0.100996</v>
       </c>
       <c r="H5">
-        <v>0.589280032972562</v>
+        <v>0.302988</v>
       </c>
       <c r="I5">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="J5">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N5">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q5">
-        <v>10.86356176076103</v>
+        <v>3.06480795166</v>
       </c>
       <c r="R5">
-        <v>10.86356176076103</v>
+        <v>27.58327156494</v>
       </c>
       <c r="S5">
-        <v>0.1698364719081547</v>
+        <v>0.01450188967274396</v>
       </c>
       <c r="T5">
-        <v>0.1698364719081547</v>
+        <v>0.01450188967274396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.589280032972562</v>
+        <v>0.100996</v>
       </c>
       <c r="H6">
-        <v>0.589280032972562</v>
+        <v>0.302988</v>
       </c>
       <c r="I6">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="J6">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N6">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q6">
-        <v>1.843206627544235</v>
+        <v>0.3256219779026666</v>
       </c>
       <c r="R6">
-        <v>1.843206627544235</v>
+        <v>2.930597801123999</v>
       </c>
       <c r="S6">
-        <v>0.02881593693797081</v>
+        <v>0.001540760162804812</v>
       </c>
       <c r="T6">
-        <v>0.02881593693797081</v>
+        <v>0.001540760162804812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.100996</v>
+      </c>
+      <c r="H7">
+        <v>0.302988</v>
+      </c>
+      <c r="I7">
+        <v>0.0170054639091879</v>
+      </c>
+      <c r="J7">
+        <v>0.0170054639091879</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.014730333333333</v>
+      </c>
+      <c r="N7">
+        <v>6.044191</v>
+      </c>
+      <c r="O7">
+        <v>0.05661792461415433</v>
+      </c>
+      <c r="P7">
+        <v>0.05661792461415433</v>
+      </c>
+      <c r="Q7">
+        <v>0.2034797047453333</v>
+      </c>
+      <c r="R7">
+        <v>1.831317342708</v>
+      </c>
+      <c r="S7">
+        <v>0.0009628140736391226</v>
+      </c>
+      <c r="T7">
+        <v>0.0009628140736391226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6471736666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.941521</v>
+      </c>
+      <c r="I8">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="J8">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>30.345835</v>
+      </c>
+      <c r="N8">
+        <v>91.03750500000001</v>
+      </c>
+      <c r="O8">
+        <v>0.8527782452855476</v>
+      </c>
+      <c r="P8">
+        <v>0.8527782452855475</v>
+      </c>
+      <c r="Q8">
+        <v>19.63902530501167</v>
+      </c>
+      <c r="R8">
+        <v>176.751227745105</v>
+      </c>
+      <c r="S8">
+        <v>0.09292685960934273</v>
+      </c>
+      <c r="T8">
+        <v>0.09292685960934272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.589280032972562</v>
-      </c>
-      <c r="H7">
-        <v>0.589280032972562</v>
-      </c>
-      <c r="I7">
-        <v>0.2162618637325317</v>
-      </c>
-      <c r="J7">
-        <v>0.2162618637325317</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.91146110256232</v>
-      </c>
-      <c r="N7">
-        <v>1.91146110256232</v>
-      </c>
-      <c r="O7">
-        <v>0.08142653809820651</v>
-      </c>
-      <c r="P7">
-        <v>0.08142653809820651</v>
-      </c>
-      <c r="Q7">
-        <v>1.126385861543694</v>
-      </c>
-      <c r="R7">
-        <v>1.126385861543694</v>
-      </c>
-      <c r="S7">
-        <v>0.01760945488640613</v>
-      </c>
-      <c r="T7">
-        <v>0.01760945488640613</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6471736666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.941521</v>
+      </c>
+      <c r="I9">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="J9">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.224107666666666</v>
+      </c>
+      <c r="N9">
+        <v>9.672322999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.09060383010029813</v>
+      </c>
+      <c r="P9">
+        <v>0.09060383010029811</v>
+      </c>
+      <c r="Q9">
+        <v>2.086557580364778</v>
+      </c>
+      <c r="R9">
+        <v>18.779018223283</v>
+      </c>
+      <c r="S9">
+        <v>0.009873058378711242</v>
+      </c>
+      <c r="T9">
+        <v>0.00987305837871124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6471736666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.941521</v>
+      </c>
+      <c r="I10">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="J10">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.014730333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.044191</v>
+      </c>
+      <c r="O10">
+        <v>0.05661792461415433</v>
+      </c>
+      <c r="P10">
+        <v>0.05661792461415433</v>
+      </c>
+      <c r="Q10">
+        <v>1.303880417167889</v>
+      </c>
+      <c r="R10">
+        <v>11.734923754511</v>
+      </c>
+      <c r="S10">
+        <v>0.006169629632414166</v>
+      </c>
+      <c r="T10">
+        <v>0.006169629632414166</v>
       </c>
     </row>
   </sheetData>
